--- a/file/idioms.xlsx
+++ b/file/idioms.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="147">
   <si>
     <t>english</t>
   </si>
@@ -73,13 +73,405 @@
   </si>
   <si>
     <t>Cả bà và các con đều không được thừa kế di chúc.</t>
+  </si>
+  <si>
+    <t>At ease</t>
+  </si>
+  <si>
+    <t>thoải mái, thư giãn</t>
+  </si>
+  <si>
+    <t>On the whole, I enjoy attending our local club, but I think there are far too many rules and regulations to feel completely at ease.</t>
+  </si>
+  <si>
+    <t>Nhìn chung, tôi thích tham dự câu lạc bộ địa phương của chúng tôi, nhưng tôi nghĩ có quá nhiều quy tắc và quy định để cảm thấy hoàn toàn thoải mái.</t>
+  </si>
+  <si>
+    <t>Admit doing st</t>
+  </si>
+  <si>
+    <t>thú nhận làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At last, he admitted opening that box</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuối cùng, hắn thừa nhận đã mở chiếc hộp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> admit + Ving/having Vp2</t>
+  </si>
+  <si>
+    <t>Appreciate doing st</t>
+  </si>
+  <si>
+    <t>cảm kích làm gì</t>
+  </si>
+  <si>
+    <t>Avoid doing st</t>
+  </si>
+  <si>
+    <t>tránh làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be busy doing st </t>
+  </si>
+  <si>
+    <t>bận làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be worth doing st </t>
+  </si>
+  <si>
+    <t>đáng làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can’t help/stand/bear doing st </t>
+  </si>
+  <si>
+    <t>không thể chịu/nhịn được</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider doing st </t>
+  </si>
+  <si>
+    <t>xem xét, cân nhắc làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delay/postpone/put off doing st </t>
+  </si>
+  <si>
+    <t>hoãn lại làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deny doing st </t>
+  </si>
+  <si>
+    <t>phủ nhận làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enjoy/fancy doing st </t>
+  </si>
+  <si>
+    <t>thích làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feel like doing st </t>
+  </si>
+  <si>
+    <t>thích/muốn làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finish doing st </t>
+  </si>
+  <si>
+    <t>hoàn thành làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get/be accustomed/used to doing st </t>
+  </si>
+  <si>
+    <t>quen làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hate/detest/resent doing st </t>
+  </si>
+  <si>
+    <t>ghét làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have difficulty (in) doing st </t>
+  </si>
+  <si>
+    <t>gặp khó khăn trong việc làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagine doing st </t>
+  </si>
+  <si>
+    <t>tưởng tượng làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involve doing st </t>
+  </si>
+  <si>
+    <t>có liên quan làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep doing st </t>
+  </si>
+  <si>
+    <t>cứ làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look forward to doing st </t>
+  </si>
+  <si>
+    <t>mong đợi làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mention doing st </t>
+  </si>
+  <si>
+    <t>đề cập làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mind doing st </t>
+  </si>
+  <si>
+    <t>phiền/ngại làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miss doing st </t>
+  </si>
+  <si>
+    <t>suýt, lỡ làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice doing st </t>
+  </si>
+  <si>
+    <t>thực hành làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recall doing st </t>
+  </si>
+  <si>
+    <t>nhớ lại làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommend doing st </t>
+  </si>
+  <si>
+    <t>đề xuất làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resist doing st </t>
+  </si>
+  <si>
+    <t>phản đối làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risk doing st </t>
+  </si>
+  <si>
+    <t>liều lĩnh làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spend time doing st </t>
+  </si>
+  <si>
+    <t>dành thời gian làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suggest doing st </t>
+  </si>
+  <si>
+    <t>gợi ý làm gì</t>
+  </si>
+  <si>
+    <t>There is no point in doing st
+= It’s no use/good doing st</t>
+  </si>
+  <si>
+    <t>không đáng làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tolerate doing st </t>
+  </si>
+  <si>
+    <t>chịu đựng làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waste time doing st </t>
+  </si>
+  <si>
+    <t>lãng phí thời gian làm gì</t>
+  </si>
+  <si>
+    <t>he appriciate having Tet holiday ever  year.</t>
+  </si>
+  <si>
+    <t>anh ấy luôn đánh giá cao ngày  nghỉ Tết mỗi năm.</t>
+  </si>
+  <si>
+    <t>I avoid walking in the mud</t>
+  </si>
+  <si>
+    <t>tôi tránh đi bộ trong bùn</t>
+  </si>
+  <si>
+    <t>I am busy learning in my room</t>
+  </si>
+  <si>
+    <t>Tôi đang bận học trong phòng</t>
+  </si>
+  <si>
+    <t>it isn't worth worrying about it</t>
+  </si>
+  <si>
+    <t>nó không đáng để lo lắng.</t>
+  </si>
+  <si>
+    <t>I can't help thinking about how much money I lost</t>
+  </si>
+  <si>
+    <t>Tôi không thể ngừng nghĩ về số tiền tôi đã mất</t>
+  </si>
+  <si>
+    <t>I am considering taking a trip to USA</t>
+  </si>
+  <si>
+    <t>tôi đang xem xét 1 chuyến đi đến Mỹ</t>
+  </si>
+  <si>
+    <t>the flight was delayed remaining pilot system</t>
+  </si>
+  <si>
+    <t>chuyến bay đã được hoãn lại để bảo trì hệ thống lái</t>
+  </si>
+  <si>
+    <t>I denied opening the door</t>
+  </si>
+  <si>
+    <t>tôi phủ nhận đã mở cửa</t>
+  </si>
+  <si>
+    <t>I enjoy going camping</t>
+  </si>
+  <si>
+    <t>tôi thích đi cắm trại</t>
+  </si>
+  <si>
+    <t>tôi thích đi mua sắm với các bạn của tôi</t>
+  </si>
+  <si>
+    <t>I feel like shoping with my friends</t>
+  </si>
+  <si>
+    <t>He finished designing the office</t>
+  </si>
+  <si>
+    <t>anh ấy đã hoàn thành việc thiết kế căn phòng</t>
+  </si>
+  <si>
+    <t>- she get going to market in the morning
+- he is accustomed driving car to go to office</t>
+  </si>
+  <si>
+    <t>- cô ấy quen đi chợ mỗi buổi sáng
+- anh ấy đã quen với việc lái xe đến văn phòng</t>
+  </si>
+  <si>
+    <t>- I hate swimming
+- he detest eating vegetable</t>
+  </si>
+  <si>
+    <t>- tôi ghét bơi lội
+- anh ấy ghét ăn hoa quả</t>
+  </si>
+  <si>
+    <t>I have difficult in learning english</t>
+  </si>
+  <si>
+    <t>tôi gặp khó khăn trong việc học tiếng anh</t>
+  </si>
+  <si>
+    <t>she imagines doing the same job for years by years</t>
+  </si>
+  <si>
+    <t>cô ấy tưởng tượng mình sẽ làm cùng một công việc trong nhiều năm</t>
+  </si>
+  <si>
+    <t>expansion business involves increasing expenditure</t>
+  </si>
+  <si>
+    <t>kinh doanh mở rộng liên quan đến việc tăng chi tiêu</t>
+  </si>
+  <si>
+    <t>why do you keep looking back?</t>
+  </si>
+  <si>
+    <t>tại sao bạn cứ nhìn về phía sau thế?</t>
+  </si>
+  <si>
+    <t>what are you looking forward to seeing?</t>
+  </si>
+  <si>
+    <t>bạn đang mong đợi nhìn thấy gì?</t>
+  </si>
+  <si>
+    <t>she mentioned having seen her boy friend at her cousin's wedding</t>
+  </si>
+  <si>
+    <t>cô ấy đề cập đến việc đã gặp bạn trai mình tại đám cưới của anh họ cô ấy</t>
+  </si>
+  <si>
+    <t>would you mind turning off the radio?</t>
+  </si>
+  <si>
+    <t>bạn có phiền tắt radio đi không?</t>
+  </si>
+  <si>
+    <t>we missed watching a football match last night</t>
+  </si>
+  <si>
+    <t>chúng tôi bỏ lỡ trận bóng tối qua</t>
+  </si>
+  <si>
+    <t>we practice playing football every day</t>
+  </si>
+  <si>
+    <t>chúng tôi thực hành chơi bóng đá mỗi ngày</t>
+  </si>
+  <si>
+    <t>I don't recall ever having watched such a dull film as XXX.</t>
+  </si>
+  <si>
+    <t>tôi không thể nhớ rằng đã xem bộ phim nào tồi tệ như XXX</t>
+  </si>
+  <si>
+    <t>I recommended playing football for team building in the next week</t>
+  </si>
+  <si>
+    <t>tôi đề xuất chơi bóng đá trong buổi team building tuần tới</t>
+  </si>
+  <si>
+    <t>Mark risked being arrested when he failed to stop at traffic light</t>
+  </si>
+  <si>
+    <t>Mark có nguy cơ bị bắt khi không dừng đèn đỏ</t>
+  </si>
+  <si>
+    <t>I spend time revising my lessons</t>
+  </si>
+  <si>
+    <t>tôi dành thời gian để ôn bài</t>
+  </si>
+  <si>
+    <t>who suggest comng here for picnic?</t>
+  </si>
+  <si>
+    <t>ai đã đề xuất picnic ở đây vậy?</t>
+  </si>
+  <si>
+    <t>it is no use trying to make him change his mind</t>
+  </si>
+  <si>
+    <t>Nó không đáng để cố gắng thay đổi suy nghĩ của anh ấy</t>
+  </si>
+  <si>
+    <t>He wastes time decorating his room</t>
+  </si>
+  <si>
+    <t>Anh ấy lãng phí thời gian trang trí phòng của mình</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,20 +483,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212529"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -139,8 +517,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +836,7 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -474,30 +850,30 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -508,81 +884,570 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file/idioms.xlsx
+++ b/file/idioms.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
   <si>
     <t>english</t>
   </si>
@@ -465,6 +465,18 @@
   </si>
   <si>
     <t>Anh ấy lãng phí thời gian trang trí phòng của mình</t>
+  </si>
+  <si>
+    <t>How many + N(số nhiều) + are there + in + …..?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> có bao nhiêu…?</t>
+  </si>
+  <si>
+    <t>Có bao nhiêu nốt nhạc trong 11000 âm mà tai của con người có thể phân biệt được trong thang âm nhạc?</t>
+  </si>
+  <si>
+    <t>How many musical notes of the 11,000 tones that the human ear can distinguish are there in the musical scale?</t>
   </si>
 </sst>
 </file>
@@ -800,7 +812,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,11 +1385,19 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
+      <c r="A38" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>

--- a/file/idioms.xlsx
+++ b/file/idioms.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="155">
   <si>
     <t>english</t>
   </si>
@@ -477,22 +477,26 @@
   </si>
   <si>
     <t>How many musical notes of the 11,000 tones that the human ear can distinguish are there in the musical scale?</t>
+  </si>
+  <si>
+    <t>S + V(quá khứ đơn) + otherwise + S + would/could + have + Vp2</t>
+  </si>
+  <si>
+    <t>Tôi đã dùng máy tính còn không thì nó có thể đã phải mất thời gian lâu hơn</t>
+  </si>
+  <si>
+    <t>I used my calculator; otherwise it would have taken longer.</t>
+  </si>
+  <si>
+    <t>nếu không thì</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -520,15 +524,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,23 +807,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="62.5703125" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="65" customWidth="1"/>
-    <col min="5" max="5" width="87.42578125" customWidth="1"/>
-    <col min="6" max="6" width="73.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65" style="1" customWidth="1"/>
+    <col min="5" max="5" width="87.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="73.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,633 +840,538 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="A39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file/idioms.xlsx
+++ b/file/idioms.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="289">
   <si>
     <t>english</t>
   </si>
@@ -489,19 +489,436 @@
   </si>
   <si>
     <t>nếu không thì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afford to do st </t>
+  </si>
+  <si>
+    <t>có đủ khả năng làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agree to do st </t>
+  </si>
+  <si>
+    <t>đồng ý làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrange to do st </t>
+  </si>
+  <si>
+    <t>sắp xếp làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appear to do st </t>
+  </si>
+  <si>
+    <t>hóa ra là</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask to do st </t>
+  </si>
+  <si>
+    <t>yêu cầu làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attempt to do st </t>
+  </si>
+  <si>
+    <t>nỗ lực làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Care to do st </t>
+  </si>
+  <si>
+    <t>quan tâm làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose to do st </t>
+  </si>
+  <si>
+    <t>chọn làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claim to do st </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decide to do st </t>
+  </si>
+  <si>
+    <t>quyết định làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demand to do st </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deserve to do st </t>
+  </si>
+  <si>
+    <t>xứng đáng làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expect to do st </t>
+  </si>
+  <si>
+    <t>mong muốn làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail to do st </t>
+  </si>
+  <si>
+    <t>thất bại làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happen to do st </t>
+  </si>
+  <si>
+    <t>tình cờ làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hesitate to do st </t>
+  </si>
+  <si>
+    <t>ngập ngừng làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hope to do st </t>
+  </si>
+  <si>
+    <t>hy vọng làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intend to do st </t>
+  </si>
+  <si>
+    <t>dự định làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn to do st </t>
+  </si>
+  <si>
+    <t>học làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage to do st </t>
+  </si>
+  <si>
+    <t>xoay xở làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neglect to do st </t>
+  </si>
+  <si>
+    <t>sao nhãng làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offer to do st </t>
+  </si>
+  <si>
+    <t>đề nghị làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan to do st </t>
+  </si>
+  <si>
+    <t>có kế hoạch làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepare to do st </t>
+  </si>
+  <si>
+    <t>chuẩn bị làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretend to do st </t>
+  </si>
+  <si>
+    <t>giả vờ làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promise to do st </t>
+  </si>
+  <si>
+    <t>hứa làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propose to do st </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuse to do st </t>
+  </si>
+  <si>
+    <t>từ chối làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seem to do st </t>
+  </si>
+  <si>
+    <t>dường như làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swear to do st </t>
+  </si>
+  <si>
+    <t>thề làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tend to do st </t>
+  </si>
+  <si>
+    <t>có khuynh hướng làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threaten to do st </t>
+  </si>
+  <si>
+    <t>dọa làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vow to do st </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait to do st </t>
+  </si>
+  <si>
+    <t>chờ làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Want to do st </t>
+  </si>
+  <si>
+    <t>muốn làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wish to do st </t>
+  </si>
+  <si>
+    <t>ước mơ làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would like to do st </t>
+  </si>
+  <si>
+    <t>muốn, thích làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yearn/desire to do st </t>
+  </si>
+  <si>
+    <t>khát khao làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask/tell sb to do st </t>
+  </si>
+  <si>
+    <t>bảo ai đó làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assume sb to do st </t>
+  </si>
+  <si>
+    <t>cho rằng ai đó làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beg sb to do st </t>
+  </si>
+  <si>
+    <t>cãu xin ai làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Believe sb to do st </t>
+  </si>
+  <si>
+    <t>tin tưởng ai làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cause sb to do st </t>
+  </si>
+  <si>
+    <t>khiến cho ai làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Challenge sb to do st </t>
+  </si>
+  <si>
+    <t>mời ai đó tham gia vào</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command sb to do st </t>
+  </si>
+  <si>
+    <t>yêu cầu ai làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compel sb to do st </t>
+  </si>
+  <si>
+    <t>bắt buộc ai làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consider sb to do st </t>
+  </si>
+  <si>
+    <t>xem xét ai làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable sb to do st </t>
+  </si>
+  <si>
+    <t>làm cho ai có thể làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encourage sb to do st </t>
+  </si>
+  <si>
+    <t>khuyến khích ai làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expect sb to do st </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forbid sb to do st </t>
+  </si>
+  <si>
+    <t>cấm ai làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Force sb to do st </t>
+  </si>
+  <si>
+    <t>ép ai đó làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get sb to do st </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instruct sb to do st </t>
+  </si>
+  <si>
+    <t>chỉ dẫn ai làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invite sb to do st </t>
+  </si>
+  <si>
+    <t>mời ai đó làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order sb to do st </t>
+  </si>
+  <si>
+    <t>ra lệnh cho ai làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefer sb to do st </t>
+  </si>
+  <si>
+    <t>muốn ai đó làm gì hơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persuade sb to do st </t>
+  </si>
+  <si>
+    <t>thuyết phục ai làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remind sb to do st </t>
+  </si>
+  <si>
+    <t>nhắc nhở ai làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request sb to do st </t>
+  </si>
+  <si>
+    <t>đòi hỏi ai làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warn sb not to do st </t>
+  </si>
+  <si>
+    <t>cảnh báo ai không làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teach sb to do st </t>
+  </si>
+  <si>
+    <t>dạy ai làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urge sb to do st </t>
+  </si>
+  <si>
+    <t>hối thúc ai làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempt sb to do st </t>
+  </si>
+  <si>
+    <t>xúi giục ai làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Want sb to do st </t>
+  </si>
+  <si>
+    <t>muốn ai đó làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To/in order to/so as to + V </t>
+  </si>
+  <si>
+    <t>để làm gì (chỉ mục đích)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It takes sb + time + to V </t>
+  </si>
+  <si>
+    <t>ai đó tốn bao nhiêu thời gian để làm gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be about to V = be going to V </t>
+  </si>
+  <si>
+    <t>How/when/where/what/who/whether+ To V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find it adj + to V </t>
+  </si>
+  <si>
+    <t>thấy cái gì như thế nào để làm gì</t>
+  </si>
+  <si>
+    <t>The first/second/ third/..../last/ only
++ to V</t>
+  </si>
+  <si>
+    <t>đầu tiên/thứ hai/thứ ba,..../cuối cùng/duy nhất
+làm gì</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -524,9 +941,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,15 +1230,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="62.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="65" style="1" customWidth="1"/>
@@ -1373,6 +1796,572 @@
         <v>152</v>
       </c>
     </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
